--- a/Config/音悦榜.xlsx
+++ b/Config/音悦榜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动时间" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,13 +147,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,7 +154,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +227,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,25 +277,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,45 +289,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -305,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +514,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,54 +603,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -596,21 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1271,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3">
-        <v>2511</v>
+        <v>56212</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -1343,7 +1343,7 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Config/音悦榜.xlsx
+++ b/Config/音悦榜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="活动时间" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>期数</t>
   </si>
@@ -30,40 +30,52 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-1-23 04:01:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-1-30 03:00:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-1-30 07:01:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-6 03:00:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-6 08:01:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-13 03:00:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-13 07:01:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-20 03:00:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-20 08:01:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-27 03:00:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2-27 07:01:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-3-6 04:00:00 </t>
+    <t>2019-4-10 04:01:00</t>
+  </si>
+  <si>
+    <t>2019-4-17 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-4-17 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-4-24 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-4-24 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-4-30 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-4-30 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-5-8 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-5-8 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-5-15 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-5-15 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-5-22 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-5-22 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-5-29 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-5-29 08:01:00</t>
+  </si>
+  <si>
+    <t>2019-6-5 03:00:00</t>
   </si>
   <si>
     <t>歌曲ID</t>
@@ -125,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,6 +159,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,14 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +211,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,69 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,24 +279,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +317,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,25 +437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,43 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,91 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,16 +527,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,7 +571,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,30 +605,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,17 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,149 +631,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,100 +1157,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10">
+        <v>34</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9">
+      <c r="C9" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1246,32 +1285,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
-        <v>56212</v>
+        <v>2516</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -1279,10 +1320,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
-        <v>314</v>
+        <v>521</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1290,10 +1331,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2518</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2531</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1301,34 +1342,56 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
-        <v>2144</v>
+        <v>806</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
-        <v>521</v>
+        <v>2511</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
+        <v>521</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2144</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
         <v>806</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1340,11 +1403,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1354,90 +1419,102 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:3">
       <c r="A2" s="3">
-        <v>2511</v>
+        <v>2516</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
       </c>
       <c r="C2" s="6">
-        <v>375000</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:3">
       <c r="A3" s="3">
-        <v>314</v>
+        <v>521</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>628000</v>
+        <v>758000</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:3">
-      <c r="A4" s="3">
-        <v>2518</v>
+      <c r="A4" s="7">
+        <v>2531</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>355000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:3">
       <c r="A5" s="3">
-        <v>2144</v>
+        <v>806</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>358000</v>
+        <v>866250</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:3">
       <c r="A6" s="3">
-        <v>521</v>
+        <v>2511</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6">
-        <v>758000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:3">
       <c r="A7" s="3">
+        <v>521</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>758000</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:3">
+      <c r="A8" s="3">
+        <v>2144</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>359000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>806</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="6">
         <v>866250</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,10 +1525,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1465,40 +1542,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1510,19 +1587,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1534,19 +1611,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1558,19 +1635,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4">
         <v>50</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1582,19 +1659,20 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>18</v>
+        <f>A2+1</f>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -1606,19 +1684,20 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>18</v>
+        <f t="shared" ref="A7:A35" si="0">A3+1</f>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1629,19 +1708,20 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1653,19 +1733,20 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
         <v>50</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1677,19 +1758,20 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1700,19 +1782,20 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -1723,19 +1806,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B12" s="4">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1746,19 +1830,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>50</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1769,19 +1854,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <v>3</v>
+      <c r="C14" s="3">
+        <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -1792,19 +1878,20 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
-        <v>3</v>
+      <c r="C15" s="3">
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -1815,19 +1902,20 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>3</v>
+      <c r="C16" s="3">
+        <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -1838,19 +1926,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B17" s="4">
         <v>50</v>
       </c>
-      <c r="C17" s="1">
-        <v>3</v>
+      <c r="C17" s="3">
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1861,19 +1950,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
+      <c r="C18" s="3">
+        <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1884,19 +1974,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
+      <c r="C19" s="3">
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1907,19 +1998,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B20" s="4">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="3">
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1930,19 +2022,20 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>50</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
+      <c r="C21" s="3">
+        <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1953,19 +2046,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
+      <c r="C22" s="3">
+        <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1976,19 +2070,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B23" s="4">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1999,19 +2094,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -2022,24 +2118,217 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B25" s="4">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B29" s="4">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>50</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2067,13 +2356,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2128,12 +2417,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
